--- a/App/job_course.xlsx
+++ b/App/job_course.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>Listing of all Careers in the system, with their category, skills and competencies</t>
   </si>
@@ -297,10 +297,22 @@
 </t>
   </si>
   <si>
-    <t>COMP 1600; INFO 2602; INFO 2604</t>
+    <t>course requirements</t>
   </si>
   <si>
-    <t>course requirements</t>
+    <t>COMP 1602; COMP 2601; COMP 2605</t>
+  </si>
+  <si>
+    <t>INFO 3606,INFO3611; COMP 1601; COMP 2605</t>
+  </si>
+  <si>
+    <t>INFO 3607,INFO 3605; COMP 1602; COMP2601</t>
+  </si>
+  <si>
+    <t>COMP 2601; COMP 1601; INFO 2601; COMP 2605</t>
+  </si>
+  <si>
+    <t>COMP 1601; INFO 2602; INFO 2604</t>
   </si>
 </sst>
 </file>
@@ -653,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -712,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
@@ -756,7 +768,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
@@ -799,7 +811,9 @@
       <c r="B4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
@@ -841,7 +855,9 @@
       <c r="B5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
@@ -883,7 +899,9 @@
       <c r="B6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
@@ -925,7 +943,9 @@
       <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
@@ -967,7 +987,9 @@
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
@@ -29759,7 +29781,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
